--- a/teste - Copia.xlsx
+++ b/teste - Copia.xlsx
@@ -1,43 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caue Foyth\Desktop\HYPERLOCAL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14633D-5D50-4C24-805F-D4FF25D2E562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
+    <sheet r:id="rId2" sheetId="2" name="Planilha2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Planilha1!$A$1:$R$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
   <si>
     <t>Sim</t>
   </si>
@@ -102,7 +83,10 @@
     <t>Operacional / Não Operacional</t>
   </si>
   <si>
-    <t>Serviços Itaú</t>
+    <t>Franqueadora Itaú</t>
+  </si>
+  <si>
+    <t>PREFEITURA DA CIDADE DE SÃO PAULO</t>
   </si>
   <si>
     <t>Marcos Silva</t>
@@ -111,34 +95,26 @@
     <t>Contas a Pagar</t>
   </si>
   <si>
+    <t>4.2.10</t>
+  </si>
+  <si>
     <t>FT</t>
   </si>
   <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>49864948000184</t>
-  </si>
-  <si>
-    <t>10.10 Devoluções e Estornos</t>
-  </si>
-  <si>
-    <t>43766311000179</t>
-  </si>
-  <si>
-    <t>43409620000191</t>
-  </si>
-  <si>
-    <t>15837407000145</t>
+    <t>46395000000139</t>
+  </si>
+  <si>
+    <t>Solutions Itaú</t>
+  </si>
+  <si>
+    <t>Pago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,12 +158,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFa5a5a5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -201,22 +177,22 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -225,7 +201,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -237,7 +213,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -281,73 +257,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -358,10 +338,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -399,71 +379,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,7 +471,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -514,11 +494,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -527,13 +507,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -543,7 +523,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -552,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -561,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -569,10 +549,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -637,288 +617,614 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="29" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="17" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="34.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="20" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="2" width="5.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="2" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="2" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="2" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="63">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1600.77</v>
+      </c>
+      <c r="D2" s="12">
+        <v>45268</v>
+      </c>
+      <c r="E2" s="12">
+        <v>45268</v>
+      </c>
+      <c r="F2" s="12">
+        <f>IF(D2="","",IF(AND(E2="",D2&lt;=TODAY()),"Atrasado",IF(E2&lt;&gt;"","Pago","A Vencer")))</f>
+        <v>25568.875</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9">
-        <v>109.9</v>
-      </c>
-      <c r="D2" s="10">
-        <v>45238</v>
-      </c>
-      <c r="E2" s="10">
-        <v>45238</v>
-      </c>
-      <c r="F2" s="10" t="str">
-        <f ca="1">IF(D2="","",IF(AND(E2="",D2&lt;=TODAY()),"Atrasado",IF(E2&lt;&gt;"","Pago","A Vencer")))</f>
-        <v>Pago</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="C3" s="11">
+        <v>1600.77</v>
+      </c>
+      <c r="D3" s="12">
+        <v>45268</v>
+      </c>
+      <c r="E3" s="12">
+        <v>45268</v>
+      </c>
+      <c r="F3" s="12">
+        <f>IF(D3="","",IF(AND(E3="",D3&lt;=TODAY()),"Atrasado",IF(E3&lt;&gt;"","Pago","A Vencer")))</f>
+        <v>25568.875</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="H3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11">
+        <v>109.8</v>
+      </c>
+      <c r="D4" s="12">
+        <v>45268</v>
+      </c>
+      <c r="E4" s="12">
+        <v>45268</v>
+      </c>
+      <c r="F4" s="12">
+        <f>IF(D4="","",IF(AND(E4="",D4&lt;=TODAY()),"Atrasado",IF(E4&lt;&gt;"","Pago","A Vencer")))</f>
+        <v>25568.875</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11">
+        <v>109.8</v>
+      </c>
+      <c r="D5" s="12">
+        <v>45268</v>
+      </c>
+      <c r="E5" s="12">
+        <v>45268</v>
+      </c>
+      <c r="F5" s="12">
+        <f>IF(D5="","",IF(AND(E5="",D5&lt;=TODAY()),"Atrasado",IF(E5&lt;&gt;"","Pago","A Vencer")))</f>
+        <v>25568.875</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="I5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="L5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11">
+        <v>109.8</v>
+      </c>
+      <c r="D6" s="12">
+        <v>45268</v>
+      </c>
+      <c r="E6" s="12">
+        <v>45268</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="D3" s="10">
-        <v>45238</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45238</v>
-      </c>
-      <c r="F3" s="10" t="str">
-        <f ca="1">IF(D3="","",IF(AND(E3="",D3&lt;=TODAY()),"Atrasado",IF(E3&lt;&gt;"","Pago","A Vencer")))</f>
-        <v>Pago</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="J6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="C7" s="11">
+        <v>109.8</v>
+      </c>
+      <c r="D7" s="12">
+        <v>45268</v>
+      </c>
+      <c r="E7" s="12">
+        <v>45268</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11">
+        <v>109.8</v>
+      </c>
+      <c r="D8" s="12">
+        <v>45268</v>
+      </c>
+      <c r="E8" s="12">
+        <v>45268</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11">
+        <v>109.8</v>
+      </c>
+      <c r="D9" s="12">
+        <v>45268</v>
+      </c>
+      <c r="E9" s="12">
+        <v>45268</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="I9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:29" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11">
+        <v>109.8</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45268</v>
+      </c>
+      <c r="E10" s="12">
+        <v>45268</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="D4" s="10">
-        <v>45238</v>
-      </c>
-      <c r="E4" s="10">
-        <v>45238</v>
-      </c>
-      <c r="F4" s="10" t="str">
-        <f ca="1">IF(D4="","",IF(AND(E4="",D4&lt;=TODAY()),"Atrasado",IF(E4&lt;&gt;"","Pago","A Vencer")))</f>
-        <v>Pago</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="J10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:29" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="D5" s="10">
-        <v>45238</v>
-      </c>
-      <c r="E5" s="10">
-        <v>45238</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f t="shared" ref="F5" ca="1" si="0">IF(D5="","",IF(AND(E5="",D5&lt;=TODAY()),"Atrasado",IF(E5&lt;&gt;"","Pago","A Vencer")))</f>
-        <v>Pago</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -926,7 +1232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -934,18 +1240,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/teste - Copia.xlsx
+++ b/teste - Copia.xlsx
@@ -1,19 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caue Foyth\Desktop\HYPERLOCAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04393BDC-93D7-43BA-9987-DB7226E73756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
-    <sheet r:id="rId2" sheetId="2" name="Planilha2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Planilha1!$A$1:$R$2</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,9 +132,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +169,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -158,12 +187,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFa5a5a5"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -177,22 +206,22 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -201,7 +230,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,7 +242,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -257,77 +286,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -338,10 +367,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -379,71 +408,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,7 +500,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -494,11 +523,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -507,13 +536,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -523,7 +552,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -532,7 +561,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -541,7 +570,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -549,10 +578,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -617,614 +646,479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="17" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="17" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="17" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="20" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="2" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="2" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="2" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="2" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="63">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="10" t="s">
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>1600.77</v>
       </c>
-      <c r="D2" s="12">
-        <v>45268</v>
-      </c>
-      <c r="E2" s="12">
-        <v>45268</v>
-      </c>
-      <c r="F2" s="12">
-        <f>IF(D2="","",IF(AND(E2="",D2&lt;=TODAY()),"Atrasado",IF(E2&lt;&gt;"","Pago","A Vencer")))</f>
-        <v>25568.875</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E2" s="10">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="10" t="str">
+        <f ca="1">IF(D2="","",IF(AND(E2="",D2&lt;=TODAY()),"Atrasado",IF(E2&lt;&gt;"","Pago","A Vencer")))</f>
+        <v>Pago</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="10" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>1600.77</v>
       </c>
-      <c r="D3" s="12">
-        <v>45268</v>
-      </c>
-      <c r="E3" s="12">
-        <v>45268</v>
-      </c>
-      <c r="F3" s="12">
-        <f>IF(D3="","",IF(AND(E3="",D3&lt;=TODAY()),"Atrasado",IF(E3&lt;&gt;"","Pago","A Vencer")))</f>
-        <v>25568.875</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="D3" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45658</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f ca="1">IF(D3="","",IF(AND(E3="",D3&lt;=TODAY()),"Atrasado",IF(E3&lt;&gt;"","Pago","A Vencer")))</f>
+        <v>Pago</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="10" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>109.8</v>
       </c>
-      <c r="D4" s="12">
-        <v>45268</v>
-      </c>
-      <c r="E4" s="12">
-        <v>45268</v>
-      </c>
-      <c r="F4" s="12">
-        <f>IF(D4="","",IF(AND(E4="",D4&lt;=TODAY()),"Atrasado",IF(E4&lt;&gt;"","Pago","A Vencer")))</f>
-        <v>25568.875</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="D4" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E4" s="10">
+        <v>45658</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f ca="1">IF(D4="","",IF(AND(E4="",D4&lt;=TODAY()),"Atrasado",IF(E4&lt;&gt;"","Pago","A Vencer")))</f>
+        <v>Pago</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="10" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>109.8</v>
       </c>
-      <c r="D5" s="12">
-        <v>45268</v>
-      </c>
-      <c r="E5" s="12">
-        <v>45268</v>
-      </c>
-      <c r="F5" s="12">
-        <f>IF(D5="","",IF(AND(E5="",D5&lt;=TODAY()),"Atrasado",IF(E5&lt;&gt;"","Pago","A Vencer")))</f>
-        <v>25568.875</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E5" s="10">
+        <v>45658</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f ca="1">IF(D5="","",IF(AND(E5="",D5&lt;=TODAY()),"Atrasado",IF(E5&lt;&gt;"","Pago","A Vencer")))</f>
+        <v>Pago</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="10" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>109.8</v>
       </c>
-      <c r="D6" s="12">
-        <v>45268</v>
-      </c>
-      <c r="E6" s="12">
-        <v>45268</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E6" s="10">
+        <v>45658</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>109.8</v>
       </c>
-      <c r="D7" s="12">
-        <v>45268</v>
-      </c>
-      <c r="E7" s="12">
-        <v>45268</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E7" s="10">
+        <v>45658</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="10" t="s">
+    </row>
+    <row r="8" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>109.8</v>
       </c>
-      <c r="D8" s="12">
-        <v>45268</v>
-      </c>
-      <c r="E8" s="12">
-        <v>45268</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="D8" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45658</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="10" t="s">
+    </row>
+    <row r="9" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>109.8</v>
       </c>
-      <c r="D9" s="12">
-        <v>45268</v>
-      </c>
-      <c r="E9" s="12">
-        <v>45268</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E9" s="10">
+        <v>45658</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
-      <c r="A10" s="10" t="s">
+    </row>
+    <row r="10" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>109.8</v>
       </c>
-      <c r="D10" s="12">
-        <v>45268</v>
-      </c>
-      <c r="E10" s="12">
-        <v>45268</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="10">
+        <v>45658</v>
+      </c>
+      <c r="E10" s="10">
+        <v>45658</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1232,7 +1126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1240,18 +1134,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
